--- a/server/excel/model.xlsx
+++ b/server/excel/model.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>&lt;%forRow op,i in _data_%&gt;&lt;%forRow ol,i in op%&gt;&lt;%=op[j]%&gt;</t>
+    <t>&lt;%forRow rs1,i in _data_%&gt;&lt;%forCell res2,j in rs1%&gt;&lt;%=res2%&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
